--- a/NEW HR/PEREY, EDWIN.xlsx
+++ b/NEW HR/PEREY, EDWIN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 BALANCE EARN'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
   <si>
     <t>PERIOD</t>
   </si>
@@ -237,6 +237,15 @@
   </si>
   <si>
     <t>4/1 -29/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>VL(6-0-0)</t>
+  </si>
+  <si>
+    <t>10/24-27.30,31/2023</t>
   </si>
 </sst>
 </file>
@@ -627,14 +636,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -644,9 +656,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1177,7 +1186,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1220,7 +1229,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1284,7 +1293,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,7 +1353,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1410,7 +1419,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1473,7 +1482,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1580,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1630,7 +1639,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1695,7 +1704,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1747,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1813,7 +1822,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1999,7 +2008,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2065,7 +2074,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2123,7 +2132,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,7 +2198,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2245,7 +2254,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,7 +2329,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2363,7 +2372,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2429,7 +2438,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2485,7 +2494,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2960,10 +2969,10 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A58" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A68" activePane="bottomLeft"/>
       <selection activeCell="I11" sqref="I11"/>
-      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
+      <selection pane="bottomLeft" activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2993,14 +3002,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3012,14 +3021,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3033,16 +3042,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3075,18 +3084,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3133,7 +3142,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>50</v>
+        <v>61.25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3143,7 +3152,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>75</v>
+        <v>86.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4463,7 +4472,9 @@
       <c r="K74" s="21"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
+      <c r="A75" s="50" t="s">
+        <v>64</v>
+      </c>
       <c r="B75" s="21"/>
       <c r="C75" s="14"/>
       <c r="D75" s="41"/>
@@ -4479,15 +4490,19 @@
       <c r="K75" s="21"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
+      <c r="A76" s="42">
+        <v>44927</v>
+      </c>
       <c r="B76" s="21"/>
-      <c r="C76" s="14"/>
+      <c r="C76" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D76" s="41"/>
       <c r="E76" s="14"/>
       <c r="F76" s="21"/>
-      <c r="G76" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G76" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H76" s="41"/>
       <c r="I76" s="14"/>
@@ -4495,15 +4510,19 @@
       <c r="K76" s="21"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="42"/>
+      <c r="A77" s="42">
+        <v>44958</v>
+      </c>
       <c r="B77" s="21"/>
-      <c r="C77" s="14"/>
+      <c r="C77" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="41"/>
       <c r="E77" s="14"/>
       <c r="F77" s="21"/>
-      <c r="G77" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="41"/>
       <c r="I77" s="14"/>
@@ -4511,15 +4530,19 @@
       <c r="K77" s="21"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="42"/>
+      <c r="A78" s="42">
+        <v>44986</v>
+      </c>
       <c r="B78" s="21"/>
-      <c r="C78" s="14"/>
+      <c r="C78" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="41"/>
       <c r="E78" s="14"/>
       <c r="F78" s="21"/>
-      <c r="G78" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="41"/>
       <c r="I78" s="14"/>
@@ -4527,15 +4550,19 @@
       <c r="K78" s="21"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="42"/>
+      <c r="A79" s="42">
+        <v>45017</v>
+      </c>
       <c r="B79" s="21"/>
-      <c r="C79" s="14"/>
+      <c r="C79" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="41"/>
       <c r="E79" s="14"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="41"/>
       <c r="I79" s="14"/>
@@ -4543,15 +4570,19 @@
       <c r="K79" s="21"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
+      <c r="A80" s="42">
+        <v>45047</v>
+      </c>
       <c r="B80" s="21"/>
-      <c r="C80" s="14"/>
+      <c r="C80" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="41"/>
       <c r="E80" s="14"/>
       <c r="F80" s="21"/>
-      <c r="G80" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="41"/>
       <c r="I80" s="14"/>
@@ -4559,15 +4590,19 @@
       <c r="K80" s="21"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
+      <c r="A81" s="42">
+        <v>45078</v>
+      </c>
       <c r="B81" s="21"/>
-      <c r="C81" s="14"/>
+      <c r="C81" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="41"/>
       <c r="E81" s="14"/>
       <c r="F81" s="21"/>
-      <c r="G81" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="41"/>
       <c r="I81" s="14"/>
@@ -4575,15 +4610,19 @@
       <c r="K81" s="21"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="42"/>
+      <c r="A82" s="42">
+        <v>45108</v>
+      </c>
       <c r="B82" s="21"/>
-      <c r="C82" s="14"/>
+      <c r="C82" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="41"/>
       <c r="E82" s="14"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="41"/>
       <c r="I82" s="14"/>
@@ -4591,15 +4630,19 @@
       <c r="K82" s="21"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
+      <c r="A83" s="42">
+        <v>45139</v>
+      </c>
       <c r="B83" s="21"/>
-      <c r="C83" s="14"/>
+      <c r="C83" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="41"/>
       <c r="E83" s="14"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="41"/>
       <c r="I83" s="14"/>
@@ -4607,15 +4650,19 @@
       <c r="K83" s="21"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
+      <c r="A84" s="42">
+        <v>45170</v>
+      </c>
       <c r="B84" s="21"/>
-      <c r="C84" s="14"/>
+      <c r="C84" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="41"/>
       <c r="E84" s="14"/>
       <c r="F84" s="21"/>
-      <c r="G84" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="41"/>
       <c r="I84" s="14"/>
@@ -4623,7 +4670,9 @@
       <c r="K84" s="21"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="42"/>
+      <c r="A85" s="42">
+        <v>45200</v>
+      </c>
       <c r="B85" s="21"/>
       <c r="C85" s="14"/>
       <c r="D85" s="41"/>
@@ -4639,7 +4688,9 @@
       <c r="K85" s="21"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="42"/>
+      <c r="A86" s="42">
+        <v>45231</v>
+      </c>
       <c r="B86" s="21"/>
       <c r="C86" s="14"/>
       <c r="D86" s="41"/>
@@ -4655,7 +4706,9 @@
       <c r="K86" s="21"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="42"/>
+      <c r="A87" s="42">
+        <v>45261</v>
+      </c>
       <c r="B87" s="21"/>
       <c r="C87" s="14"/>
       <c r="D87" s="41"/>
@@ -4671,7 +4724,9 @@
       <c r="K87" s="21"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="42"/>
+      <c r="A88" s="42">
+        <v>45292</v>
+      </c>
       <c r="B88" s="21"/>
       <c r="C88" s="14"/>
       <c r="D88" s="41"/>
@@ -5424,17 +5479,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5469,10 +5524,10 @@
   </sheetPr>
   <dimension ref="A2:K132"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" activePane="bottomLeft"/>
       <selection activeCell="E13" sqref="E13"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5502,14 +5557,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -5521,14 +5576,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -5542,16 +5597,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -5584,18 +5639,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5642,7 +5697,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>56.276999999999987</v>
+        <v>50.276999999999987</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -5876,10 +5931,16 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="42">
+        <v>45200</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>65</v>
+      </c>
       <c r="C20" s="14"/>
-      <c r="D20" s="41"/>
+      <c r="D20" s="41">
+        <v>6</v>
+      </c>
       <c r="E20" s="10"/>
       <c r="F20" s="21"/>
       <c r="G20" s="14" t="str">
@@ -5889,7 +5950,9 @@
       <c r="H20" s="41"/>
       <c r="I20" s="10"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="21"/>
+      <c r="K20" s="21" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
